--- a/document/数据库表结构.xlsx
+++ b/document/数据库表结构.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.USER-20150623BM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SpringTest\workspace\wechatcard\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6642,35 +6642,35 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1240" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1240" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="1240" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1240" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1240" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="1240" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1240" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1784">
@@ -8847,7 +8847,7 @@
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="19"/>
@@ -8861,7 +8861,7 @@
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="19"/>
@@ -8875,7 +8875,7 @@
       <c r="B4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="29" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="19"/>
@@ -8886,10 +8886,10 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>99</v>
       </c>
       <c r="D5" s="19"/>
@@ -8900,10 +8900,10 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>141</v>
       </c>
       <c r="D6" s="19"/>
@@ -8915,7 +8915,7 @@
         <v/>
       </c>
       <c r="B7" s="19"/>
-      <c r="C7" s="26"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
     </row>
@@ -8925,7 +8925,7 @@
         <v/>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="26"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
     </row>
@@ -8935,7 +8935,7 @@
         <v/>
       </c>
       <c r="B9" s="19"/>
-      <c r="C9" s="26"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
     </row>
@@ -8945,7 +8945,7 @@
         <v/>
       </c>
       <c r="B10" s="19"/>
-      <c r="C10" s="26"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
     </row>
@@ -8955,7 +8955,7 @@
         <v/>
       </c>
       <c r="B11" s="19"/>
-      <c r="C11" s="26"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
@@ -9237,14 +9237,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -9570,14 +9570,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -9640,7 +9640,9 @@
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1">
-      <c r="A5" s="6"/>
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
       <c r="B5" s="7" t="s">
         <v>24</v>
       </c>
@@ -9659,7 +9661,7 @@
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>27</v>
@@ -9679,7 +9681,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>29</v>
@@ -9699,7 +9701,7 @@
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>32</v>
@@ -9719,7 +9721,7 @@
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>34</v>
@@ -9739,7 +9741,7 @@
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>37</v>
@@ -9759,7 +9761,7 @@
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>40</v>
@@ -9779,7 +9781,7 @@
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="A12" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -9799,7 +9801,7 @@
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="A13" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>47</v>
@@ -9819,7 +9821,7 @@
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1">
       <c r="A14" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>50</v>
@@ -9933,14 +9935,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -10358,14 +10360,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -10773,14 +10775,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -10806,16 +10808,16 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="27" t="s">
         <v>118</v>
       </c>
       <c r="F3" s="8"/>
@@ -10826,16 +10828,16 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="27" t="s">
         <v>130</v>
       </c>
       <c r="F4" s="8"/>
@@ -10846,16 +10848,16 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="27" t="s">
         <v>128</v>
       </c>
       <c r="F5" s="8"/>
@@ -10866,16 +10868,16 @@
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="27" t="s">
         <v>131</v>
       </c>
       <c r="F6" s="8"/>
@@ -10886,16 +10888,16 @@
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="27" t="s">
         <v>132</v>
       </c>
       <c r="F7" s="8"/>
@@ -10906,16 +10908,16 @@
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="27" t="s">
         <v>136</v>
       </c>
       <c r="F8" s="8"/>
@@ -10926,16 +10928,16 @@
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="27" t="s">
         <v>116</v>
       </c>
       <c r="F9" s="8"/>
@@ -11018,14 +11020,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -11051,16 +11053,16 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="27" t="s">
         <v>105</v>
       </c>
       <c r="F3" s="8"/>
@@ -11071,16 +11073,16 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="27" t="s">
         <v>108</v>
       </c>
       <c r="F4" s="8"/>
@@ -11091,16 +11093,16 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="27" t="s">
         <v>110</v>
       </c>
       <c r="F5" s="8"/>
@@ -11111,16 +11113,16 @@
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="27" t="s">
         <v>114</v>
       </c>
       <c r="F6" s="8"/>
@@ -11131,16 +11133,16 @@
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="25" t="s">
         <v>112</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="27" t="s">
         <v>116</v>
       </c>
       <c r="F7" s="8"/>
@@ -11151,19 +11153,19 @@
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="25" t="s">
         <v>120</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="27" t="s">
         <v>122</v>
       </c>
       <c r="G8" s="9"/>

--- a/document/数据库表结构.xlsx
+++ b/document/数据库表结构.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="140">
   <si>
     <t>序号</t>
   </si>
@@ -504,6 +504,10 @@
   </si>
   <si>
     <t>parameter</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>新申请卡时为手机号，绑定旧卡时为卡号</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -6443,6 +6447,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1240" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1240" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6451,9 +6458,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1240" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1784">
@@ -8652,7 +8656,7 @@
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="23" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="19"/>
@@ -8992,14 +8996,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -9325,14 +9329,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -9710,14 +9714,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -10117,19 +10121,19 @@
     <col min="3" max="3" width="14" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="29.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="3.25" customWidth="1"/>
+    <col min="6" max="6" width="30.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -10259,7 +10263,9 @@
       <c r="E7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="str">
         <f t="shared" si="0"/>
@@ -10485,7 +10491,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -10510,14 +10516,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -10815,14 +10821,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="4" t="s">

--- a/document/数据库表结构.xlsx
+++ b/document/数据库表结构.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\我的文件\微信卡包\数据库\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SpringTest\workspace\wechatcard\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,28 +13,31 @@
   </bookViews>
   <sheets>
     <sheet name="数据库" sheetId="1" r:id="rId1"/>
-    <sheet name="表模板" sheetId="2" r:id="rId2"/>
-    <sheet name="商家表" sheetId="3" r:id="rId3"/>
-    <sheet name="会员信息表" sheetId="4" r:id="rId4"/>
-    <sheet name="会员卡信息表" sheetId="5" r:id="rId5"/>
-    <sheet name="字典表" sheetId="7" r:id="rId6"/>
-    <sheet name="参数表" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="表模板" sheetId="2" r:id="rId3"/>
+    <sheet name="商家表" sheetId="3" r:id="rId4"/>
+    <sheet name="会员信息表" sheetId="4" r:id="rId5"/>
+    <sheet name="会员卡信息表" sheetId="5" r:id="rId6"/>
+    <sheet name="字典表" sheetId="7" r:id="rId7"/>
+    <sheet name="参数表" sheetId="6" r:id="rId8"/>
+    <sheet name="accesstoken表" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">表模板!$A$1:$G$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">参数表!$A$1:$G$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">会员卡信息表!$A$1:$G$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">会员信息表!$A$1:$G$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">商家表!$A$1:$G$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">accesstoken表!$A$1:$G$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">表模板!$A$1:$G$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">参数表!$A$1:$G$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">会员卡信息表!$A$1:$G$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">会员信息表!$A$1:$G$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">商家表!$A$1:$G$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">数据库!$A$1:$E$27</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">字典表!$A$1:$G$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">字典表!$A$1:$G$19</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="153">
   <si>
     <t>序号</t>
   </si>
@@ -508,6 +511,85 @@
   </si>
   <si>
     <t>新申请卡时为手机号，绑定旧卡时为卡号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>accesstoken表</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>accesstoken</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于存放商户的accesstoken</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(600)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>updatetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>accesstoken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>accesstoken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表）</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppID应用ID，主键</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppSecret应用密钥，主键</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>appid</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>appsecret</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -8688,13 +8770,19 @@
       <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A7" s="18" t="str">
+      <c r="A7" s="18">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="19"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="18" t="str">
@@ -8978,6 +9066,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="26" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -9309,7 +9410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
@@ -9694,7 +9795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -10105,7 +10206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
@@ -10496,7 +10597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -10801,7 +10902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
@@ -11064,4 +11165,381 @@
   <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="7" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="3" customWidth="1"/>
+    <col min="5" max="6" width="27.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="3.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A1" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="str">
+        <f>B3 &amp; " " &amp; C3 &amp; ","</f>
+        <v>appid varchar(50),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9" t="str">
+        <f t="shared" ref="H4:H5" si="0">B4 &amp; " " &amp; C4 &amp; ","</f>
+        <v>appsecret varchar(80),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>accesstoken varchar(600),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="str">
+        <f>B6 &amp; " " &amp; C6 &amp; ","</f>
+        <v>updatetime timestamp,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1">
+      <c r="A15" s="6">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="26" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D25">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/document/数据库表结构.xlsx
+++ b/document/数据库表结构.xlsx
@@ -11056,7 +11056,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -11549,7 +11549,7 @@
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:F1"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>

--- a/document/数据库表结构.xlsx
+++ b/document/数据库表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18900" windowHeight="8970" tabRatio="898" activeTab="4"/>
+    <workbookView xWindow="9210" yWindow="555" windowWidth="9210" windowHeight="6555" tabRatio="898" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="数据库" sheetId="1" r:id="rId1"/>
@@ -11062,7 +11062,7 @@
   <sheetPr/>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
@@ -11587,10 +11587,10 @@
   <sheetPr/>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>

--- a/document/数据库表结构.xlsx
+++ b/document/数据库表结构.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SpringTest\workspace\wechatcard\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.USER-20150623BM\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="200">
   <si>
     <t>序号</t>
   </si>
@@ -692,6 +692,10 @@
   </si>
   <si>
     <t>更新时间</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD格式</t>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11691,10 +11695,7 @@
       <c r="E3" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="8" t="str">
-        <f>B3&amp;" "&amp;C3&amp;","</f>
-        <v>merchantcouponid varchar2(32),</v>
-      </c>
+      <c r="F3" s="8"/>
       <c r="G3" s="29"/>
       <c r="H3" s="9" t="str">
         <f>"comment on column merchantcoupon."&amp;B3&amp;" IS '"&amp;E3&amp;"';"</f>
@@ -11717,13 +11718,10 @@
       <c r="E4" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="8" t="str">
-        <f t="shared" ref="F4" si="0">B4&amp;" "&amp;C4&amp;","</f>
-        <v>merchantid varchar2(32),</v>
-      </c>
+      <c r="F4" s="8"/>
       <c r="G4" s="29"/>
       <c r="H4" s="9" t="str">
-        <f t="shared" ref="H4" si="1">"comment on column merchantcoupon."&amp;B4&amp;" IS '"&amp;E4&amp;"';"</f>
+        <f t="shared" ref="H4" si="0">"comment on column merchantcoupon."&amp;B4&amp;" IS '"&amp;E4&amp;"';"</f>
         <v>comment on column merchantcoupon.merchantid IS '商家ID，主键';</v>
       </c>
     </row>
@@ -11743,13 +11741,10 @@
       <c r="E5" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="8" t="str">
-        <f t="shared" ref="F5" si="2">B5&amp;" "&amp;C5&amp;","</f>
-        <v>couponclass varchar2(2),</v>
-      </c>
+      <c r="F5" s="8"/>
       <c r="G5" s="29"/>
       <c r="H5" s="9" t="str">
-        <f t="shared" ref="H5" si="3">"comment on column merchantcoupon."&amp;B5&amp;" IS '"&amp;E5&amp;"';"</f>
+        <f t="shared" ref="H5" si="1">"comment on column merchantcoupon."&amp;B5&amp;" IS '"&amp;E5&amp;"';"</f>
         <v>comment on column merchantcoupon.couponclass IS '优惠券分类';</v>
       </c>
     </row>
@@ -11769,13 +11764,10 @@
       <c r="E6" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="8" t="str">
-        <f t="shared" ref="F6:F14" si="4">B6&amp;" "&amp;C6&amp;","</f>
-        <v>couponvalid varchar2(50),</v>
-      </c>
+      <c r="F6" s="8"/>
       <c r="G6" s="29"/>
       <c r="H6" s="9" t="str">
-        <f t="shared" ref="H6:H14" si="5">"comment on column merchantcoupon."&amp;B6&amp;" IS '"&amp;E6&amp;"';"</f>
+        <f t="shared" ref="H6:H14" si="2">"comment on column merchantcoupon."&amp;B6&amp;" IS '"&amp;E6&amp;"';"</f>
         <v>comment on column merchantcoupon.couponvalid IS '优惠券有效期';</v>
       </c>
     </row>
@@ -11795,13 +11787,12 @@
       <c r="E7" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>couponkssj varchar2(30),</v>
+      <c r="F7" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>comment on column merchantcoupon.couponkssj IS '优惠券有效期的起始时间';</v>
       </c>
     </row>
@@ -11821,13 +11812,12 @@
       <c r="E8" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>couponjssj varchar2(30),</v>
+      <c r="F8" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>comment on column merchantcoupon.couponjssj IS '优惠券有效期的结束时间';</v>
       </c>
     </row>
@@ -11847,13 +11837,10 @@
       <c r="E9" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>couponcontent varchar2(1000),</v>
-      </c>
+      <c r="F9" s="8"/>
       <c r="G9" s="29"/>
       <c r="H9" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>comment on column merchantcoupon.couponcontent IS '商家优惠券内容';</v>
       </c>
     </row>
@@ -11873,13 +11860,10 @@
       <c r="E10" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>merchantcouponstate varchar2(2),</v>
-      </c>
+      <c r="F10" s="8"/>
       <c r="G10" s="29"/>
       <c r="H10" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>comment on column merchantcoupon.merchantcouponstate IS '优惠券状态';</v>
       </c>
     </row>
@@ -11899,13 +11883,10 @@
       <c r="E11" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>bz varchar2(1000),</v>
-      </c>
+      <c r="F11" s="8"/>
       <c r="G11" s="29"/>
       <c r="H11" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>comment on column merchantcoupon.bz IS '备注信息';</v>
       </c>
     </row>
@@ -11925,13 +11906,10 @@
       <c r="E12" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>couponname varchar(100),</v>
-      </c>
+      <c r="F12" s="8"/>
       <c r="G12" s="29"/>
       <c r="H12" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>comment on column merchantcoupon.couponname IS '优惠券名称';</v>
       </c>
     </row>
@@ -11951,13 +11929,10 @@
       <c r="E13" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="17" t="str">
-        <f t="shared" si="4"/>
-        <v>coupontype varchar2(2),</v>
-      </c>
+      <c r="F13" s="17"/>
       <c r="G13" s="38"/>
       <c r="H13" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>comment on column merchantcoupon.coupontype IS '优惠券类别';</v>
       </c>
     </row>
@@ -11977,13 +11952,10 @@
       <c r="E14" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="F14" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>couponimg varchar(100),</v>
-      </c>
+      <c r="F14" s="8"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>comment on column merchantcoupon.couponimg IS '优惠券图片';</v>
       </c>
     </row>
